--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="4">
   <si>
     <t>23sfs34-af58-409c-b085-9da69f79cfb4</t>
   </si>
